--- a/box/宿舍信息表.xlsx
+++ b/box/宿舍信息表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\360安全浏览器下载\零食盒子5-20 (1)\零食盒子5-20\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BoxData\box\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="23">
   <si>
     <t>宿舍</t>
   </si>
@@ -39,6 +39,66 @@
   </si>
   <si>
     <t>撤走</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已撤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已撤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>撤走</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>撤走</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>撤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>撤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>撤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>撤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>诚信</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>撤走</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>撤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不要</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>撤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>换732</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已撤</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -434,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB44"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="T38" sqref="T38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AC21" sqref="AC21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -581,8 +641,11 @@
       <c r="E4">
         <v>202</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>302</v>
+      </c>
+      <c r="K4" t="s">
+        <v>9</v>
       </c>
       <c r="M4">
         <v>402</v>
@@ -711,8 +774,14 @@
       <c r="Q9">
         <v>507</v>
       </c>
-      <c r="U9" s="2">
+      <c r="U9" s="1">
         <v>607</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="Y9">
         <v>707</v>
@@ -904,6 +973,9 @@
       <c r="Y17" s="2">
         <v>715</v>
       </c>
+      <c r="AA17" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A18">
@@ -932,8 +1004,11 @@
       <c r="A19">
         <v>117</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>217</v>
+      </c>
+      <c r="G19" t="s">
+        <v>8</v>
       </c>
       <c r="I19">
         <v>317</v>
@@ -984,14 +1059,26 @@
       <c r="A21">
         <v>119</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>219</v>
+      </c>
+      <c r="G21" t="s">
+        <v>8</v>
       </c>
       <c r="I21" s="2">
         <v>319</v>
       </c>
-      <c r="M21" s="2">
+      <c r="K21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M21" s="1">
         <v>419</v>
+      </c>
+      <c r="O21" t="s">
+        <v>10</v>
       </c>
       <c r="Q21">
         <v>519</v>
@@ -999,8 +1086,11 @@
       <c r="U21">
         <v>619</v>
       </c>
-      <c r="Y21" s="2">
+      <c r="Y21" s="1">
         <v>719</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.15">
@@ -1232,11 +1322,20 @@
       <c r="M31">
         <v>429</v>
       </c>
-      <c r="Q31" s="2">
+      <c r="Q31" s="1">
         <v>529</v>
+      </c>
+      <c r="R31">
+        <v>4</v>
+      </c>
+      <c r="S31" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="U31" s="2">
         <v>629</v>
+      </c>
+      <c r="W31" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="Y31">
         <v>729</v>
@@ -1268,19 +1367,22 @@
         <v>730</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>131</v>
       </c>
       <c r="E33">
         <v>231</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="1">
         <v>331</v>
       </c>
       <c r="J33">
         <v>4</v>
       </c>
+      <c r="K33" t="s">
+        <v>11</v>
+      </c>
       <c r="M33">
         <v>431</v>
       </c>
@@ -1294,7 +1396,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>132</v>
       </c>
@@ -1304,6 +1406,9 @@
       <c r="I34" s="2">
         <v>332</v>
       </c>
+      <c r="K34" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="M34">
         <v>432</v>
       </c>
@@ -1316,11 +1421,11 @@
       <c r="U34">
         <v>632</v>
       </c>
-      <c r="Y34">
+      <c r="Y34" s="2">
         <v>732</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>133</v>
       </c>
@@ -1339,11 +1444,14 @@
       <c r="U35">
         <v>633</v>
       </c>
-      <c r="Y35" s="2">
+      <c r="Y35" s="1">
         <v>733</v>
       </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="AA35" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>134</v>
       </c>
@@ -1356,7 +1464,7 @@
       <c r="M36">
         <v>434</v>
       </c>
-      <c r="Q36" s="2">
+      <c r="Q36" s="1">
         <v>534</v>
       </c>
       <c r="S36" s="3" t="s">
@@ -1369,7 +1477,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>135</v>
       </c>
@@ -1392,7 +1500,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>136</v>
       </c>
@@ -1415,7 +1523,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>137</v>
       </c>
@@ -1438,7 +1546,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>138</v>
       </c>
@@ -1461,7 +1569,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>139</v>
       </c>
@@ -1484,7 +1592,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>140</v>
       </c>
@@ -1510,7 +1618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>141</v>
       </c>
@@ -1533,7 +1641,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>142</v>
       </c>
@@ -1578,7 +1686,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1587,7 +1695,7 @@
   <dimension ref="A1:AB44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB7" sqref="AB7"/>
+      <selection activeCell="AB32" sqref="AB32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1745,6 +1853,9 @@
       <c r="U4">
         <v>602</v>
       </c>
+      <c r="W4" t="s">
+        <v>21</v>
+      </c>
       <c r="Y4">
         <v>702</v>
       </c>
@@ -1863,6 +1974,9 @@
       <c r="Y9">
         <v>707</v>
       </c>
+      <c r="AA9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A10">
@@ -1906,6 +2020,9 @@
       <c r="U11">
         <v>609</v>
       </c>
+      <c r="W11" t="s">
+        <v>22</v>
+      </c>
       <c r="Y11">
         <v>709</v>
       </c>
@@ -2459,6 +2576,9 @@
       </c>
       <c r="U34">
         <v>632</v>
+      </c>
+      <c r="W34" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="Y34">
         <v>732</v>
